--- a/Kadr/Kadr/Reporting/template_график.xlsx
+++ b/Kadr/Kadr/Reporting/template_график.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akurleni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UGTUKadrProject\Kadr\Kadr\Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -466,9 +474,63 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -484,65 +546,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +865,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -886,35 +900,35 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="38" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="3"/>
       <c r="J3" s="9" t="s">
         <v>5</v>
@@ -922,11 +936,11 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
@@ -934,20 +948,20 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -956,27 +970,27 @@
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="51" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="14"/>
@@ -986,13 +1000,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="48">
+      <c r="E8" s="31">
         <v>41974</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="13">
         <v>2015</v>
       </c>
@@ -1010,79 +1024,79 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="29" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="30"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="32" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="30"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="20" t="s">
         <v>21</v>
       </c>
@@ -1092,9 +1106,9 @@
       <c r="H13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="31"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -1133,6 +1147,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B7:C8"/>
@@ -1140,13 +1161,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="K10:K13"/>
